--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2232.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2232.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.28875559031883</v>
+        <v>1.020402789115906</v>
       </c>
       <c r="B1">
-        <v>2.884284992316054</v>
+        <v>2.20635461807251</v>
       </c>
       <c r="C1">
-        <v>8.71177355323309</v>
+        <v>7.109145164489746</v>
       </c>
       <c r="D1">
-        <v>2.004840125927422</v>
+        <v>2.365393400192261</v>
       </c>
       <c r="E1">
-        <v>1.098372216083796</v>
+        <v>1.331662893295288</v>
       </c>
     </row>
   </sheetData>
